--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqua9\Desktop\테스트케이스 및 테스트결과보고서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김승현\Desktop\SE2017_9_pigeon\doc\4_ 테스트케이스 및 테스트결과보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12167"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
     <sheet name="테스트케이스" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt; 팀 명&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">일자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,11 +155,15 @@
 예) TC-0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt; Pigeon &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,8 +530,36 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -843,167 +871,167 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="4" width="15.625" customWidth="1"/>
+    <col min="1" max="4" width="15.609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="41.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="40" x14ac:dyDescent="0.65">
       <c r="B1" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+      <c r="D4" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="24" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="D4" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A10" s="9"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A11" s="9"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A12" s="9"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A13" s="9"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A14" s="9"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A16" s="9"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A17" s="9"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A18" s="9"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A19" s="9"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A21" s="9"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A22" s="9"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A23" s="9"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A24" s="9"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A25" s="9"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A26" s="9"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A27" s="9"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1028,47 +1056,47 @@
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.609375" customWidth="1"/>
+    <col min="3" max="3" width="17.71875" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="5" max="5" width="30.71875" customWidth="1"/>
+    <col min="6" max="6" width="17.71875" customWidth="1"/>
+    <col min="7" max="7" width="25.71875" customWidth="1"/>
+    <col min="8" max="8" width="26.609375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="17.71875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="29.35" x14ac:dyDescent="0.65">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.65">
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.65">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.65">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B7" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>0</v>
@@ -1077,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>2</v>
@@ -1098,39 +1126,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="83.35" x14ac:dyDescent="0.65">
       <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.65">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1142,7 +1170,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.65">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1154,7 +1182,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.65">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1166,7 +1194,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.65">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1178,7 +1206,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.65">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1190,7 +1218,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.65">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1202,7 +1230,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.65">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1214,7 +1242,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.65">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1226,7 +1254,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1238,7 +1266,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1250,7 +1278,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1262,7 +1290,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1274,7 +1302,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1286,7 +1314,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1298,7 +1326,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1310,7 +1338,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1322,7 +1350,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1334,7 +1362,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1346,7 +1374,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>&lt; Pigeon &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김승현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,9 +505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -525,6 +534,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,7 +883,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.65"/>
@@ -880,48 +892,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40" x14ac:dyDescent="0.65">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.65"/>
     <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.65"/>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.65">
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.65"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="B7" s="21"/>
+      <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="24">
+        <v>42891</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A10" s="9"/>
@@ -1095,34 +1115,34 @@
       <c r="C5" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="21" t="s">
         <v>6</v>
       </c>
     </row>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김승현\Desktop\SE2017_9_pigeon\doc\4_ 테스트케이스 및 테스트결과보고서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JungGyeonghHwan/SE2017_9_pigeon/doc/4_ 테스트케이스 및 테스트결과보고서/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12167"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="12160"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
     <sheet name="테스트케이스" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +175,18 @@
   </si>
   <si>
     <t>김승현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정경환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,175 +302,175 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,7 +480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,15 +550,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -882,40 +903,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="15.609375" customWidth="1"/>
+    <col min="1" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.65"/>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.65"/>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="D4" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.65"/>
-    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="23" t="s">
+    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20"/>
     </row>
-    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
@@ -929,8 +950,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A9" s="24">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>42891</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -943,115 +964,123 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A10" s="9"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>42892</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1076,45 +1105,45 @@
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.609375" customWidth="1"/>
-    <col min="3" max="3" width="17.71875" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="30.71875" customWidth="1"/>
-    <col min="6" max="6" width="17.71875" customWidth="1"/>
-    <col min="7" max="7" width="25.71875" customWidth="1"/>
-    <col min="8" max="8" width="26.609375" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="17.71875" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.35" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
@@ -1146,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="83.35" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:11" ht="85" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
@@ -1178,7 +1207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1190,7 +1219,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1202,7 +1231,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1214,7 +1243,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1226,7 +1255,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1238,7 +1267,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1250,7 +1279,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1262,7 +1291,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1274,7 +1303,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.65">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1286,7 +1315,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.65">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1298,7 +1327,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.65">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1310,7 +1339,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.65">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1322,7 +1351,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.65">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1334,7 +1363,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.65">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1346,7 +1375,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.65">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1358,7 +1387,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.65">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1370,7 +1399,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.65">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1382,7 +1411,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.65">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1394,7 +1423,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.65">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JungGyeonghHwan/SE2017_9_pigeon/doc/4_ 테스트케이스 및 테스트결과보고서/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="12160"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
     <sheet name="테스트케이스" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,15 +170,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정경환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김진걸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,15 +557,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -893,7 +900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -904,39 +911,39 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="15.6640625" customWidth="1"/>
+    <col min="1" max="4" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="41.25" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="20.100000000000001" x14ac:dyDescent="0.25">
       <c r="D4" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20"/>
     </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
@@ -950,7 +957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>42891</v>
       </c>
@@ -964,117 +971,125 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
         <v>42892</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>42893</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1105,19 +1120,19 @@
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="25.625" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1125,25 +1140,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
@@ -1175,7 +1190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="85" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
@@ -1207,7 +1222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1219,7 +1234,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1231,7 +1246,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1243,7 +1258,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1255,7 +1270,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1267,7 +1282,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1279,7 +1294,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1291,7 +1306,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1303,7 +1318,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1315,7 +1330,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1327,7 +1342,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1339,7 +1354,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1351,7 +1366,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1363,7 +1378,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1375,7 +1390,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1387,7 +1402,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1399,7 +1414,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1411,7 +1426,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1423,7 +1438,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>김진걸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,11 +572,11 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,7 +912,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -911,7 +923,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -933,12 +945,12 @@
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20"/>
@@ -985,8 +997,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
         <v>42893</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1000,10 +1012,18 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="25">
+        <v>42893</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
